--- a/pa-28-236/landing_distance_over_50ft.xlsx
+++ b/pa-28-236/landing_distance_over_50ft.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbreslow/projects/open-aircraft-performance/pa-28-236/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9F7E49D1-B0DF-3B4A-88F4-165408AAF53E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC29E1CE-7D7F-3944-A57A-58431B8AB1BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="38400" windowHeight="19860"/>
+    <workbookView xWindow="320" yWindow="800" windowWidth="37760" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="landing_distance_over_50ft" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>Sea Level</t>
   </si>
@@ -110,11 +110,17 @@
   <si>
     <t>b</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -737,7 +743,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -747,7 +754,7 @@
                   <c:y val="0.31314776979408188"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -945,7 +952,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -955,7 +963,7 @@
                   <c:y val="0.24669337251210946"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1129,7 +1137,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1139,7 +1148,7 @@
                   <c:y val="0.20022129886825371"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1325,7 +1334,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1335,7 +1345,7 @@
                   <c:y val="0.17516700718532632"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1515,7 +1525,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1860,6 +1871,1640 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>landing_distance_over_50ft!$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.067804024496938E-3"/>
+                  <c:y val="0.33427420530766988"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>landing_distance_over_50ft!$B$41:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>landing_distance_over_50ft!$D$41:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.8956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0613000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3031999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6078000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7297-744C-91C5-DCE00C2E02DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="817467248"/>
+        <c:axId val="817747488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="817467248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="817747488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="817747488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="817467248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>landing_distance_over_50ft!$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>landing_distance_over_50ft!$B$41:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>landing_distance_over_50ft!$E$41:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1677.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1735.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1800.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1871.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1951.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8BA-6445-B7D7-71D936370FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="784700960"/>
+        <c:axId val="824495584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="784700960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="824495584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="824495584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="784700960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Approach</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.9914698162729659E-2"/>
+                  <c:y val="-3.937007874015748E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>landing_distance_over_50ft!$V$20:$V$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>landing_distance_over_50ft!$W$20:$W$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-838C-D14B-BF20-4440C63BD779}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="785890272"/>
+        <c:axId val="787519744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="785890272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787519744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="787519744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="785890272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-40.012930835424299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-36.056403072612703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-32.223641877434098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-27.896122288757802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-23.691753513646599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-18.0034174350764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.191930542941099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.2563692061390697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66809316359045501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4801958097935497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.394482843552201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.959360231523501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.019303890026301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.965964193900898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.665399239543703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.870383768722803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1673.8150582657199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1685.78377795908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1697.1251981958401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1710.35236526531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1724.1991348655299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1743.07969397022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1761.3406505441701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1780.8523575683801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1802.88865627068</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1822.3965148319701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1848.8277581933701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1867.70446883514</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1889.0903773033001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1906.07749264943</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1922.4334600760401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1937.5271316636099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-055A-9E46-8E90-C7B9A3349719}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2115053632"/>
+        <c:axId val="2141622288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2115053632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2141622288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2141622288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2115053632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5410,7 +7055,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:forward val="1000"/>
             <c:backward val="1000"/>
             <c:dispRSqr val="1"/>
@@ -6737,7 +8383,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
-          <c:min val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7038,7 +8684,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:forward val="1000"/>
             <c:backward val="1000"/>
             <c:dispRSqr val="1"/>
@@ -7387,8 +9034,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>landing_distance_over_50ft!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -7419,25 +9077,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0279308836395455E-2"/>
+                  <c:y val="8.9219160104986872E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -7470,114 +9120,48 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$1:$A$16</c:f>
+              <c:f>landing_distance_over_50ft!$B$41:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-40.012930835424299</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-36.056403072612703</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-32.223641877434098</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-27.896122288757802</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-23.691753513646599</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-18.0034174350764</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-12.191930542941099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-6.2563692061390697</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.66809316359045501</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4801958097935497</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.394482843552201</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.959360231523501</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.019303890026301</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.965964193900898</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35.665399239543703</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39.870383768722803</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$1:$B$16</c:f>
+              <c:f>landing_distance_over_50ft!$C$41:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1673.8150582657199</c:v>
+                  <c:v>3.3050000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1685.78377795908</c:v>
+                  <c:v>3.0040000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1697.1251981958401</c:v>
+                  <c:v>2.97E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1710.35236526531</c:v>
+                  <c:v>2.4429999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1724.1991348655299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1743.07969397022</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1761.3406505441701</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1780.8523575683801</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1802.88865627068</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1822.3965148319701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1848.8277581933701</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1867.70446883514</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1889.0903773033001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1906.07749264943</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1922.4334600760401</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1937.5271316636099</c:v>
+                  <c:v>8.9999999999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7585,7 +9169,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-055A-9E46-8E90-C7B9A3349719}"/>
+              <c16:uniqueId val="{00000000-929B-6F41-8CE5-8A98229294B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7597,16 +9181,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115053632"/>
-        <c:axId val="2141622288"/>
+        <c:axId val="788448608"/>
+        <c:axId val="787976864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115053632"/>
+        <c:axId val="788448608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7616,8 +9214,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -7644,12 +9242,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141622288"/>
+        <c:crossAx val="787976864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2141622288"/>
+        <c:axId val="787976864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7675,8 +9273,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7700,7 +9304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115053632"/>
+        <c:crossAx val="788448608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7712,37 +9316,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -7788,6 +9361,166 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8663,7 +10396,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9179,7 +10912,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9695,7 +11428,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10211,8 +11944,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10239,8 +11972,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10320,6 +12053,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10330,6 +12068,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -10341,7 +12084,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10361,6 +12104,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10373,10 +12119,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10416,23 +12162,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10537,8 +12282,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10670,20 +12415,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10697,17 +12441,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10727,7 +12460,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11243,7 +12976,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11759,7 +13492,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12275,8 +14008,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12303,8 +14036,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12384,11 +14117,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -12399,11 +14127,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -12415,7 +14138,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -12435,9 +14158,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12450,10 +14170,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -12493,22 +14213,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -12613,8 +14334,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12746,23 +14467,240 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -12772,6 +14710,1865 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -12867,16 +16664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12903,16 +16700,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13017,10 +16814,10 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13076,6 +16873,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C55644-12DD-5947-87B7-FD879612B8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C18BA3F-DD91-3848-AA4F-1B039FD1869E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A68245-BEE8-944D-8084-FB4609B689BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9298FC4E-C381-364A-9DEF-C5F0B85D5925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13421,11 +17362,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO42" sqref="AO42:AP49"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15209,6 +19150,28 @@
       <c r="B20">
         <v>1799.7521589877001</v>
       </c>
+      <c r="V20">
+        <v>3000</v>
+      </c>
+      <c r="W20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="V21">
+        <v>2500</v>
+      </c>
+      <c r="W21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="V22">
+        <v>2000</v>
+      </c>
+      <c r="W22">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AD23" t="s">
@@ -15306,7 +19269,16 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="40" spans="13:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
       <c r="N40" t="s">
         <v>24</v>
       </c>
@@ -15314,7 +19286,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="13:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>3.3050000000000002E-3</v>
+      </c>
+      <c r="D41">
+        <v>2.8956</v>
+      </c>
+      <c r="E41">
+        <v>1677.2</v>
+      </c>
       <c r="M41">
         <f>N41*3000+O41</f>
         <v>1599.6</v>
@@ -15326,7 +19310,19 @@
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="13:43" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>2000</v>
+      </c>
+      <c r="C42">
+        <v>3.0040000000000002E-3</v>
+      </c>
+      <c r="D42">
+        <v>3.0613000000000001</v>
+      </c>
+      <c r="E42">
+        <v>1735.9</v>
+      </c>
       <c r="M42">
         <f t="shared" ref="M42:M46" si="0">N42*3000+O42</f>
         <v>1698.6</v>
@@ -15344,7 +19340,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="13:43" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>4000</v>
+      </c>
+      <c r="C43">
+        <v>2.97E-3</v>
+      </c>
+      <c r="D43">
+        <v>3.3031999999999999</v>
+      </c>
+      <c r="E43">
+        <v>1800.91</v>
+      </c>
       <c r="M43">
         <f t="shared" si="0"/>
         <v>1795.8</v>
@@ -15362,7 +19370,19 @@
         <v>57.34</v>
       </c>
     </row>
-    <row r="44" spans="13:43" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>6000</v>
+      </c>
+      <c r="C44">
+        <v>2.4429999999999999E-3</v>
+      </c>
+      <c r="D44">
+        <v>3.6078000000000001</v>
+      </c>
+      <c r="E44">
+        <v>1871.96</v>
+      </c>
       <c r="M44">
         <f t="shared" si="0"/>
         <v>1900.5</v>
@@ -15380,7 +19400,19 @@
         <v>58.948</v>
       </c>
     </row>
-    <row r="45" spans="13:43" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>8000</v>
+      </c>
+      <c r="C45">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D45">
+        <v>3.8424</v>
+      </c>
+      <c r="E45">
+        <v>1951.6</v>
+      </c>
       <c r="M45">
         <f t="shared" si="0"/>
         <v>2001</v>
@@ -15398,7 +19430,7 @@
         <v>64.688000000000002</v>
       </c>
     </row>
-    <row r="46" spans="13:43" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:43" x14ac:dyDescent="0.2">
       <c r="M46">
         <f t="shared" si="0"/>
         <v>2103.8999999999996</v>
@@ -15416,7 +19448,7 @@
         <v>66.555000000000007</v>
       </c>
     </row>
-    <row r="47" spans="13:43" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:43" x14ac:dyDescent="0.2">
       <c r="AO47">
         <v>1800</v>
       </c>
@@ -15424,7 +19456,7 @@
         <v>67.358000000000004</v>
       </c>
     </row>
-    <row r="48" spans="13:43" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:43" x14ac:dyDescent="0.2">
       <c r="AO48">
         <v>1900</v>
       </c>
@@ -15451,7 +19483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
